--- a/Ontap/Excel/Excel_De04.xlsx
+++ b/Ontap/Excel/Excel_De04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTS\TaiLieuChuyenMon\GiangDay\THCS_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="DULIEU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>MÃ HÀNG</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>PH56X</t>
-  </si>
-  <si>
-    <t>LG52X</t>
   </si>
   <si>
     <t>AS40X</t>
@@ -156,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.0_);_([$$-409]* \(#,##0.0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;vnd&quot;* #,##0_);_(&quot;vnd&quot;* \(#,##0\);_(&quot;vnd&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.0_);_([$$-409]* \(#,##0.0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;vnd&quot;* #,##0_);_(&quot;vnd&quot;* \(#,##0\);_(&quot;vnd&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -317,11 +314,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,72 +337,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -694,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -712,16 +667,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -731,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -742,15 +697,15 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>43315</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -761,12 +716,12 @@
       <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>43315</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -777,12 +732,12 @@
       <c r="E4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>43330</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -793,125 +748,125 @@
       <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>43337</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="7">
         <v>7</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>43327</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7">
         <v>11</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>43316</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>43340</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7">
         <v>14</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>43334</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="7">
         <v>9</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5">
         <v>40</v>
@@ -925,10 +880,10 @@
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5">
         <v>52</v>
@@ -939,16 +894,16 @@
       <c r="F15" s="5">
         <v>26</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>28</v>
+      <c r="K15" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5">
         <v>56</v>
@@ -972,41 +927,41 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1046,42 +1001,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
